--- a/Documentos/Backlogs/Product-Backlog.xlsx
+++ b/Documentos/Backlogs/Product-Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/vinicius_n_ferreira_accenture_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caio\Documents\2WORK-Mobile\Documentos\Backlogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{F3A58DA0-F22D-49E0-AD27-B78289E66F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{909C3C19-55C7-4347-9BD5-718218B98821}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1974D994-04D0-4134-97AE-E1B5C83E1F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4C1D28F5-B791-4EB6-AB95-91E10419C445}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4C1D28F5-B791-4EB6-AB95-91E10419C445}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>A etapa de login do usuário deve exibir opções de recuperação de senha e criação de conta.</t>
+  </si>
+  <si>
+    <t>Trabalhar na ideia de monetização do APP.</t>
   </si>
 </sst>
 </file>
@@ -193,7 +196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -204,6 +207,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -230,7 +237,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -526,20 +533,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF7E733D-CFE3-4414-9F1C-C3DB5EE58EC8}">
-  <dimension ref="B2:E13"/>
+  <dimension ref="B2:E14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="99.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="3" max="3" width="102.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -567,7 +574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -581,7 +588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -595,7 +602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -609,7 +616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -623,7 +630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -637,7 +644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -651,7 +658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -665,7 +672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -679,7 +686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -693,7 +700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -704,6 +711,20 @@
         <v>4</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Documentos/Backlogs/Product-Backlog.xlsx
+++ b/Documentos/Backlogs/Product-Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caio\Documents\2WORK-Mobile\Documentos\Backlogs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/vinicius_n_ferreira_accenture_com/Documents/Desktop/2WORK-Mobile/2WORK-Mobile/Documentos/Backlogs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1974D994-04D0-4134-97AE-E1B5C83E1F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{1974D994-04D0-4134-97AE-E1B5C83E1F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4061B45A-9452-44AC-ABA2-09B195B64798}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4C1D28F5-B791-4EB6-AB95-91E10419C445}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{4C1D28F5-B791-4EB6-AB95-91E10419C445}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -100,13 +100,22 @@
   </si>
   <si>
     <t>Trabalhar na ideia de monetização do APP.</t>
+  </si>
+  <si>
+    <t>O App Mobile deve possuir um certificado digital e HTTPS implementado.</t>
+  </si>
+  <si>
+    <t>O App Mobile deverá ter a disponibilidade de salvar dados.</t>
+  </si>
+  <si>
+    <t>O App Mobile deverá consumir uma API para conexão a um banco de dados.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +149,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -196,7 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -211,6 +228,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -237,7 +257,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -533,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF7E733D-CFE3-4414-9F1C-C3DB5EE58EC8}">
-  <dimension ref="B2:E14"/>
+  <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,13 +585,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -579,7 +599,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>4</v>
@@ -593,13 +613,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -607,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>4</v>
@@ -621,13 +641,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -635,13 +655,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -649,13 +669,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -663,13 +683,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -677,13 +697,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -691,7 +711,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>4</v>
@@ -705,13 +725,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -719,13 +739,55 @@
         <v>12</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="8">
+        <v>15</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
